--- a/map/Test.xlsx
+++ b/map/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernerfachhochschule-my.sharepoint.com/personal/wengl2_bfh_ch/Documents/Desktop/Hackathon/map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Hackathon\Daten-Hackdays-BE-2023\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{379A971C-70B9-484F-B1E1-E6EBA469AD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D09720A-7178-4610-AF7B-B9044E203D6E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35E5B8B-2B5B-4D75-AA8C-94EA24924647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EC6D34AC-77B0-4BF0-AFB3-3AC8A11065E5}"/>
   </bookViews>
@@ -113,10 +113,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,7 +415,7 @@
   <dimension ref="A1:G576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F3" sqref="F3:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>46.920330100000001</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G3" s="1">
-        <v>7.40366841408858</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -510,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>47.280839049999997</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G4" s="1">
-        <v>7.3727222183546397</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -533,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>47.065148899999997</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G5" s="1">
-        <v>7.6137084637599601</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -556,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>46.947277</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G6" s="1">
-        <v>7.4504359999999998</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -579,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>46.948195699999999</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G7" s="1">
-        <v>7.4532062000000003</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -602,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>47.044392000000002</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G8" s="1">
-        <v>7.0944900999999998</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -625,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>46.949967200000003</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G9" s="1">
-        <v>7.4324973999999999</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -648,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>46.940587600000001</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G10" s="1">
-        <v>7.4405441000000003</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -671,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>46.658680500000003</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G11" s="1">
-        <v>7.86510924729241</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -694,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>46.953433699999998</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G12" s="1">
-        <v>7.4615295000000001</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -717,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>46.314475399999999</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G13" s="1">
-        <v>11.048028800000001</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -740,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>46.993440249999999</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G14" s="1">
-        <v>7.4605813270474099</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -763,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>46.7600774</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G15" s="1">
-        <v>7.6201873999999998</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -786,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>46.9559292</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G16" s="1">
-        <v>7.4580462000000001</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -809,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>46.954669799999998</v>
+        <v>47.135292399999997</v>
       </c>
       <c r="G17" s="1">
-        <v>7.4231106000000002</v>
+        <v>7.2435003</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
